--- a/rnaSample/rnaSample_hbrown_10.15.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.15.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -186,7 +186,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -215,6 +215,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -279,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,19 +298,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -332,7 +342,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -347,7 +357,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -393,28 +403,29 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7" t="b">
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -440,7 +451,7 @@
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -449,16 +460,17 @@
       <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="b">
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -466,7 +478,7 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -475,16 +487,17 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7" t="b">
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -492,7 +505,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -501,16 +514,17 @@
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="b">
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -518,7 +532,7 @@
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -527,16 +541,17 @@
       <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7" t="b">
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -544,7 +559,7 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -553,16 +568,17 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7" t="b">
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -570,7 +586,7 @@
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -579,16 +595,17 @@
       <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7" t="b">
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -596,7 +613,7 @@
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -605,16 +622,17 @@
       <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7" t="b">
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -622,7 +640,7 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -631,16 +649,17 @@
       <c r="D10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7" t="b">
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -648,7 +667,7 @@
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -657,16 +676,17 @@
       <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="7" t="b">
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -674,7 +694,7 @@
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -683,16 +703,17 @@
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7" t="b">
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -700,7 +721,7 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -709,16 +730,17 @@
       <c r="D13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7" t="b">
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -726,7 +748,7 @@
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -735,16 +757,17 @@
       <c r="D14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="7" t="b">
+      <c r="G14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -752,7 +775,7 @@
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -761,16 +784,17 @@
       <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7" t="b">
+      <c r="G15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -778,7 +802,7 @@
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -787,16 +811,17 @@
       <c r="D16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7" t="b">
+      <c r="G16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -804,7 +829,7 @@
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -813,16 +838,17 @@
       <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="7" t="b">
+      <c r="G17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -830,7 +856,7 @@
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -839,16 +865,17 @@
       <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="7" t="b">
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -856,7 +883,7 @@
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -865,16 +892,17 @@
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7" t="b">
+      <c r="G19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -882,7 +910,7 @@
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -891,16 +919,17 @@
       <c r="D20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="7" t="b">
+      <c r="G20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -908,7 +937,7 @@
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -917,16 +946,17 @@
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7" t="b">
+      <c r="G21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -934,7 +964,7 @@
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -943,16 +973,17 @@
       <c r="D22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="7" t="b">
+      <c r="G22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -960,7 +991,7 @@
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -969,16 +1000,17 @@
       <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="7" t="b">
+      <c r="G23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -986,7 +1018,7 @@
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -995,16 +1027,17 @@
       <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="7" t="b">
+      <c r="G24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1012,7 +1045,7 @@
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1021,16 +1054,17 @@
       <c r="D25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="7" t="b">
+      <c r="G25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1038,7 +1072,7 @@
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1047,16 +1081,17 @@
       <c r="D26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="7" t="b">
+      <c r="G26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1064,7 +1099,7 @@
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1073,16 +1108,17 @@
       <c r="D27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="7" t="b">
+      <c r="G27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1090,7 +1126,7 @@
       <c r="A28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1099,16 +1135,17 @@
       <c r="D28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="7" t="b">
+      <c r="G28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1116,7 +1153,7 @@
       <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1125,16 +1162,17 @@
       <c r="D29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="7" t="b">
+      <c r="G29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1142,7 +1180,7 @@
       <c r="A30" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1151,16 +1189,17 @@
       <c r="D30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="7" t="b">
+      <c r="G30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1168,7 +1207,7 @@
       <c r="A31" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1177,16 +1216,17 @@
       <c r="D31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="7" t="b">
+      <c r="G31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1194,7 +1234,7 @@
       <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1203,16 +1243,17 @@
       <c r="D32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="7" t="b">
+      <c r="G32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1220,7 +1261,7 @@
       <c r="A33" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1229,16 +1270,17 @@
       <c r="D33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="7" t="b">
+      <c r="G33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1246,7 +1288,7 @@
       <c r="A34" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1255,16 +1297,17 @@
       <c r="D34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="7" t="b">
+      <c r="G34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1272,7 +1315,7 @@
       <c r="A35" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1281,16 +1324,17 @@
       <c r="D35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="7" t="b">
+      <c r="G35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1298,7 +1342,7 @@
       <c r="A36" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1307,16 +1351,17 @@
       <c r="D36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="7" t="b">
+      <c r="G36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1324,7 +1369,7 @@
       <c r="A37" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -1333,16 +1378,17 @@
       <c r="D37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="7" t="b">
+      <c r="G37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/rnaSample/rnaSample_hbrown_10.15.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.15.19.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">RIN</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10.19</t>
+    <t xml:space="preserve">09.10.19</t>
   </si>
   <si>
     <t xml:space="preserve">H.BROWN</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">4a 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Trizol</t>
+    <t xml:space="preserve">TRIzol</t>
   </si>
   <si>
     <t xml:space="preserve">4a 2</t>
@@ -186,7 +186,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -218,12 +218,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -232,13 +226,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -285,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,24 +285,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -342,10 +321,10 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
   </cols>
@@ -357,7 +336,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -403,28 +382,28 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="8" t="n">
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -448,10 +427,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -460,25 +439,25 @@
       <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8" t="n">
+      <c r="G3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -487,25 +466,25 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8" t="n">
+      <c r="G4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -514,25 +493,25 @@
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8" t="n">
+      <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -541,25 +520,25 @@
       <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8" t="n">
+      <c r="G6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -568,25 +547,25 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8" t="n">
+      <c r="G7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -595,25 +574,25 @@
       <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="8" t="n">
+      <c r="G8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -622,25 +601,25 @@
       <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="8" t="n">
+      <c r="G9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -649,25 +628,25 @@
       <c r="D10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="8" t="n">
+      <c r="G10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -676,25 +655,25 @@
       <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="8" t="n">
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -703,25 +682,25 @@
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="8" t="n">
+      <c r="G12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -730,25 +709,25 @@
       <c r="D13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="8" t="n">
+      <c r="G13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -757,25 +736,25 @@
       <c r="D14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="8" t="n">
+      <c r="G14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -784,25 +763,25 @@
       <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="8" t="n">
+      <c r="G15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -811,25 +790,25 @@
       <c r="D16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="8" t="n">
+      <c r="G16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -838,25 +817,25 @@
       <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="8" t="n">
+      <c r="G17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -865,25 +844,25 @@
       <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="8" t="n">
+      <c r="G18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -892,25 +871,25 @@
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="8" t="n">
+      <c r="G19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -919,25 +898,25 @@
       <c r="D20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="8" t="n">
+      <c r="G20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -946,25 +925,25 @@
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="8" t="n">
+      <c r="G21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -973,25 +952,25 @@
       <c r="D22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="8" t="n">
+      <c r="G22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -1000,25 +979,25 @@
       <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="8" t="n">
+      <c r="G23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1027,25 +1006,25 @@
       <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="8" t="n">
+      <c r="G24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1054,25 +1033,25 @@
       <c r="D25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8" t="n">
+      <c r="G25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1081,25 +1060,25 @@
       <c r="D26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="8" t="n">
+      <c r="G26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1108,25 +1087,25 @@
       <c r="D27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="8" t="n">
+      <c r="G27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1135,25 +1114,25 @@
       <c r="D28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="8" t="n">
+      <c r="G28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1162,25 +1141,25 @@
       <c r="D29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="8" t="n">
+      <c r="G29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1189,25 +1168,25 @@
       <c r="D30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="8" t="n">
+      <c r="G30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1216,25 +1195,25 @@
       <c r="D31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="8" t="n">
+      <c r="G31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1243,25 +1222,25 @@
       <c r="D32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="8" t="n">
+      <c r="G32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1270,25 +1249,25 @@
       <c r="D33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="8" t="n">
+      <c r="G33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1297,25 +1276,25 @@
       <c r="D34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="8" t="n">
+      <c r="G34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1324,25 +1303,25 @@
       <c r="D35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="8" t="n">
+      <c r="G35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1351,25 +1330,25 @@
       <c r="D36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="8" t="n">
+      <c r="G36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -1378,27 +1357,21 @@
       <c r="D37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="8" t="n">
+      <c r="G37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G37" type="list">
-      <formula1>"DirectZol,Trizol"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/rnaSample/rnaSample_hbrown_10.15.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.15.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA5CAF-9994-D944-AAB7-2A9E4F40820C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242639C1-277D-974C-BE80-2C3985085D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -68,14 +68,14 @@
   <si>
     <t>TRIzol</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -133,7 +133,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F37"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,9 +525,8 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -570,9 +569,8 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -597,9 +595,8 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -624,9 +621,8 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -651,9 +647,8 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -678,9 +673,8 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -705,9 +699,8 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -732,9 +725,8 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -759,9 +751,8 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -786,9 +777,8 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -813,9 +803,8 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -840,9 +829,8 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -867,9 +855,8 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -894,9 +881,8 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -921,9 +907,8 @@
       <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -948,9 +933,8 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -975,9 +959,8 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1002,9 +985,8 @@
       <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1029,9 +1011,8 @@
       <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1056,9 +1037,8 @@
       <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1083,9 +1063,8 @@
       <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H22" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1110,9 +1089,8 @@
       <c r="G23" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H23" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1137,9 +1115,8 @@
       <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H24" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1164,9 +1141,8 @@
       <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H25" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1191,9 +1167,8 @@
       <c r="G26" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H26" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1218,9 +1193,8 @@
       <c r="G27" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H27" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1245,9 +1219,8 @@
       <c r="G28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H28" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1272,9 +1245,8 @@
       <c r="G29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H29" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1299,9 +1271,8 @@
       <c r="G30" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H30" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1326,9 +1297,8 @@
       <c r="G31" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H31" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1353,9 +1323,8 @@
       <c r="G32" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H32" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1380,9 +1349,8 @@
       <c r="G33" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H33" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1407,9 +1375,8 @@
       <c r="G34" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H34" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1434,9 +1401,8 @@
       <c r="G35" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H35" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1461,9 +1427,8 @@
       <c r="G36" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H36" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1488,9 +1453,8 @@
       <c r="G37" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H37" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
